--- a/DemoMvc/Uploads/Excels/CSDL.xlsx
+++ b/DemoMvc/Uploads/Excels/CSDL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PTPMQL\DemoMvc\Uploads\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAB7D5B2-F412-4E85-95F1-6FCD97CCD8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A69E387-C58D-4677-8DB1-E656CCF6C359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{09F1D891-33C4-4212-8812-D02337BAD3B7}"/>
   </bookViews>
@@ -50,12 +50,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>PS001</t>
-  </si>
-  <si>
-    <t>PS002</t>
-  </si>
-  <si>
     <t>PS003</t>
   </si>
   <si>
@@ -108,6 +102,12 @@
   </si>
   <si>
     <t>NNTH@gmail.com</t>
+  </si>
+  <si>
+    <t>PS010</t>
+  </si>
+  <si>
+    <t>PS011</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,13 +528,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -542,13 +542,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -556,13 +556,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -570,13 +570,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -584,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -598,13 +598,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -612,41 +612,41 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
